--- a/2dgame/excel/tile.xlsx
+++ b/2dgame/excel/tile.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\思维导图\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A39E6-8A09-4426-9F9B-E9EB40721555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13800" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,14 +20,321 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_794B1F96B261466DB901EA78DA8691E1" descr="grass_green"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="1276350"/>
+          <a:ext cx="314325" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_7D5D9ADD66C740259B1156D1C6480930" descr="house_yellow"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="182245"/>
+          <a:ext cx="285750" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_A4F966293A7F402FBFC3D0088CB6EC89" descr="house_blue"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="2921000"/>
+          <a:ext cx="304800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_94879472389A4C1EA7D395298D76D3B0" descr="block_red"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="2549525"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_4BE9880DA71A4DBD8DEE3B4DCAC49556" descr="block_orange"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="3551555"/>
+          <a:ext cx="295910" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_3130DD54528E470B920037B2CE111F3E" descr="box_wooden"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="4357370"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_358EB5C804F0486D888805839D2635D1" descr="box_wooden2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="5320030"/>
+          <a:ext cx="295275" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_4801C1D892444FE18066CCA7E845B12B" descr="floor_iron"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="5651500"/>
+          <a:ext cx="305435" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_C89EEEA37F8D4902A7B819DE4F56C461" descr="ironbox_blue"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="5993765"/>
+          <a:ext cx="304800" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_5F88A56346A64420A6B7A05FD964A440" descr="ironbox_lightblue"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="6252845"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_00689789F67D47609C6794B4F2FFC70B" descr="ironbox_yellowandblack"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="6663055"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_9F377D923EF544CE89DCB438CE350868" descr="roadblock_red"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="6329045"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -41,35 +342,101 @@
     <t>物件名字</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>grass</t>
+    <t>物件贴图展示</t>
+  </si>
+  <si>
+    <t>物件路径</t>
+  </si>
+  <si>
+    <t>house_yellow</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/house_yellow.png</t>
+  </si>
+  <si>
+    <t>grass_green</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/grass_green.png</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/tree.png</t>
   </si>
   <si>
     <t>block_red</t>
   </si>
   <si>
-    <t>物件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2dgame/assets/sprites/background/map_base/tree.png</t>
-  </si>
-  <si>
-    <t>物件贴图展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2dgame/assets/sprites/background/map_base/block_red.png</t>
+  </si>
+  <si>
+    <t>block_orange</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/block_orange.png</t>
+  </si>
+  <si>
+    <t>house_blue</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/house_blue.png</t>
+  </si>
+  <si>
+    <t>box_wooden</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/box_wooden.png</t>
+  </si>
+  <si>
+    <t>box_wooden2</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/box_wooden2.png</t>
+  </si>
+  <si>
+    <t>floor_iron</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/floor_iron.png</t>
+  </si>
+  <si>
+    <t>ironbox_blue</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/ironbox_blue.png</t>
+  </si>
+  <si>
+    <t>ironbox_lightblue</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/ironbox_lightblue.png</t>
+  </si>
+  <si>
+    <t>ironbox_yellowandblack</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/ironbox_yellowandblack.png</t>
+  </si>
+  <si>
+    <t>roadblock_red</t>
+  </si>
+  <si>
+    <t>2dgame/assets/sprites/background/map_base/roadblock_red.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,30 +445,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,9 +798,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -119,28 +1050,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -156,19 +1131,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DD1810-1E53-D807-E9BA-4C90F35B313A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -180,9 +1149,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1498600" y="584200"/>
+          <a:off x="2482850" y="2000250"/>
           <a:ext cx="304800" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -449,25 +1418,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,142 +1445,256 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" ht="37.5" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.DISPIMG("ID_7D5D9ADD66C740259B1156D1C6480930",1)</f>
+        <v>=DISPIMG("ID_7D5D9ADD66C740259B1156D1C6480930",1)</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" ht="102.5" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.DISPIMG("ID_794B1F96B261466DB901EA78DA8691E1",1)</f>
+        <v>=DISPIMG("ID_794B1F96B261466DB901EA78DA8691E1",1)</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="43.5" customHeight="1" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" ht="26.25" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.DISPIMG("ID_94879472389A4C1EA7D395298D76D3B0",1)</f>
+        <v>=DISPIMG("ID_94879472389A4C1EA7D395298D76D3B0",1)</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="75.6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.DISPIMG("ID_4BE9880DA71A4DBD8DEE3B4DCAC49556",1)</f>
+        <v>=DISPIMG("ID_4BE9880DA71A4DBD8DEE3B4DCAC49556",1)</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="37.5" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.DISPIMG("ID_A4F966293A7F402FBFC3D0088CB6EC89",1)</f>
+        <v>=DISPIMG("ID_A4F966293A7F402FBFC3D0088CB6EC89",1)</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="26.25" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.DISPIMG("ID_3130DD54528E470B920037B2CE111F3E",1)</f>
+        <v>=DISPIMG("ID_3130DD54528E470B920037B2CE111F3E",1)</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" ht="24.75" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.DISPIMG("ID_358EB5C804F0486D888805839D2635D1",1)</f>
+        <v>=DISPIMG("ID_358EB5C804F0486D888805839D2635D1",1)</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" ht="26.25" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.DISPIMG("ID_4801C1D892444FE18066CCA7E845B12B",1)</f>
+        <v>=DISPIMG("ID_4801C1D892444FE18066CCA7E845B12B",1)</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" ht="25.5" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.DISPIMG("ID_C89EEEA37F8D4902A7B819DE4F56C461",1)</f>
+        <v>=DISPIMG("ID_C89EEEA37F8D4902A7B819DE4F56C461",1)</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" ht="26.25" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.DISPIMG("ID_5F88A56346A64420A6B7A05FD964A440",1)</f>
+        <v>=DISPIMG("ID_5F88A56346A64420A6B7A05FD964A440",1)</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" ht="26.25" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.DISPIMG("ID_00689789F67D47609C6794B4F2FFC70B",1)</f>
+        <v>=DISPIMG("ID_00689789F67D47609C6794B4F2FFC70B",1)</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" ht="26.25" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.DISPIMG("ID_9F377D923EF544CE89DCB438CE350868",1)</f>
+        <v>=DISPIMG("ID_9F377D923EF544CE89DCB438CE350868",1)</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>